--- a/Document/StoryList.xlsx
+++ b/Document/StoryList.xlsx
@@ -14,90 +14,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>产生计分的地方原地蹦数字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>拖拽优化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NGUI像素问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>下落卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>游戏模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Boss模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>故事描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>优先级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关卡配置文件设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关卡配置文件识别</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>游戏模式设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UI元素替换与编辑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>道具功能设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>道具功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>特殊块功能设计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>新想法罗列</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>特殊块生成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>特殊块功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>线性炸弹、小炸弹、万能果冻、染色球的功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具合成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,17 +170,18 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - 着色 1" xfId="2" builtinId="30"/>
@@ -471,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D17"/>
+  <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,103 +540,113 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>99</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>97</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>98</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
